--- a/out_bd_rate/excel/bdr_BasketballDrive_randomaccess.xlsx
+++ b/out_bd_rate/excel/bdr_BasketballDrive_randomaccess.xlsx
@@ -19,37 +19,37 @@
     <t>bd_rate</t>
   </si>
   <si>
+    <t>4x4-1-8x8-1</t>
+  </si>
+  <si>
     <t>4x4-1-8x8-2</t>
   </si>
   <si>
+    <t>4x4-1-8x8-3</t>
+  </si>
+  <si>
+    <t>4x4-1-8x8-SAD</t>
+  </si>
+  <si>
+    <t>4x4-2-8x8-4</t>
+  </si>
+  <si>
     <t>4x4-3-8x8-SAD</t>
   </si>
   <si>
     <t>4x4-3</t>
   </si>
   <si>
-    <t>4x4-1-8x8-SAD</t>
+    <t>8x8-1</t>
+  </si>
+  <si>
+    <t>8x8-2</t>
   </si>
   <si>
     <t>8x8-3</t>
   </si>
   <si>
-    <t>8x8-1</t>
-  </si>
-  <si>
-    <t>4x4-1-8x8-1</t>
-  </si>
-  <si>
     <t>8x8-SAD</t>
-  </si>
-  <si>
-    <t>4x4-1-8x8-3</t>
-  </si>
-  <si>
-    <t>4x4-2-8x8-4</t>
-  </si>
-  <si>
-    <t>8x8-2</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1886637707617878</v>
+        <v>0.1554606168490125</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -439,7 +439,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-0.004486946842852113</v>
+        <v>0.1554606168490125</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -447,7 +447,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.2078860622158674</v>
+        <v>0.2078860622160228</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -455,7 +455,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.1345776013521593</v>
+        <v>0.1554606168490125</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -463,7 +463,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.08403996167998251</v>
+        <v>0.1886637707617878</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -471,7 +471,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.1554606168490125</v>
+        <v>-0.004486946842852113</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.1991053171814583</v>
+        <v>0.08403996167998251</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -487,7 +487,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.1554606168490125</v>
+        <v>0.1128915056214375</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -495,7 +495,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.1554606168490125</v>
+        <v>0.1345776013521593</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -503,7 +503,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.1128915056214375</v>
+        <v>0.1991053171814583</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -519,7 +519,7 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>0.5704846930021379</v>
+        <v>0.9209869629002609</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -527,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>-0.07764437696019533</v>
+        <v>0.9209869629002609</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -535,47 +535,47 @@
         <v>4</v>
       </c>
       <c r="B16">
-        <v>0.6329668297265334</v>
+        <v>0.632966829726378</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17">
-        <v>0.6490012758707975</v>
+        <v>0.5704846930021379</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B18">
-        <v>0.2703434744116384</v>
+        <v>-0.07764437696019533</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B19">
-        <v>0.9209869629002609</v>
+        <v>0.2703434744114608</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B20">
-        <v>0.6003256776706101</v>
+        <v>0.5095343633422234</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B21">
-        <v>0.9209869629002609</v>
+        <v>0.6490012758707975</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -583,15 +583,15 @@
         <v>11</v>
       </c>
       <c r="B22">
-        <v>0.5095343633423788</v>
+        <v>0.6003256776704546</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>0.7381768550480894</v>
+        <v>0.538079343927178</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -599,7 +599,7 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <v>0.02423845809409464</v>
+        <v>0.538079343927178</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -612,42 +612,42 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26">
-        <v>0.5827435796340152</v>
+        <v>0.7381768550480894</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B27">
-        <v>0.2434109282589025</v>
+        <v>0.02423845809409464</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B28">
-        <v>0.538079343927178</v>
+        <v>0.2434109282589025</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B29">
-        <v>0.5124586302919898</v>
+        <v>0.09432190681770702</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B30">
-        <v>0.538079343927178</v>
+        <v>0.5827435796340152</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -655,7 +655,7 @@
         <v>11</v>
       </c>
       <c r="B31">
-        <v>0.09432190681770702</v>
+        <v>0.5124586302919898</v>
       </c>
     </row>
   </sheetData>
